--- a/lib/xls_templates/service_areas/2018/SHOP_SA_BMCHP.xlsx
+++ b/lib/xls_templates/service_areas/2018/SHOP_SA_BMCHP.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsonnathi/Projects/ma/enroll/lib/xls_templates/service_areas/2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15760" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15980" xr2:uid="{063DD774-23C2-3A45-996F-84B4CCCE821F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,10 @@
     <definedName name="States">[1]county!$A$1:$BG$1</definedName>
     <definedName name="YesNo">[1]county!$BH$1:$BH$2</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -363,23 +360,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#####"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -491,27 +482,27 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,17 +511,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -539,7 +530,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -547,33 +538,33 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,145 +574,145 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -730,231 +721,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>1866900</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>139700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Button 1" descr="To validate the workbook, press ctrl + shift + i" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial"/>
-                  <a:ea typeface="Arial"/>
-                  <a:cs typeface="Arial"/>
-                </a:rPr>
-                <a:t>Validate</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>1866900</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Button 2" descr="To finalize the workbook and output a xml file press ctrl + shift + f" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial"/>
-                  <a:ea typeface="Arial"/>
-                  <a:cs typeface="Arial"/>
-                </a:rPr>
-                <a:t>Finalize</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>1866900</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Button 3" descr="Create Service Area IDs.  ctrl + shift + r" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial"/>
-                  <a:ea typeface="Arial"/>
-                  <a:cs typeface="Arial"/>
-                </a:rPr>
-                <a:t>Create Service Area IDs</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1155,9 +931,6 @@
           <cell r="BH1" t="str">
             <v>Yes</v>
           </cell>
-          <cell r="BI1" t="str">
-            <v>MAS001</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="W2" t="str">
@@ -1165,9 +938,6 @@
           </cell>
           <cell r="BH2" t="str">
             <v>No</v>
-          </cell>
-          <cell r="BI2" t="str">
-            <v>MAS002</v>
           </cell>
         </row>
         <row r="3">
@@ -1287,9 +1057,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1317,14 +1087,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1352,6 +1139,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1503,20 +1307,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6792C5B8-2344-164B-8F4B-C94452686336}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1579,7 +1382,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1592,7 +1395,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1435,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="52" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
@@ -1655,7 +1458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="66" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="110" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="91" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="104" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>24</v>
       </c>
@@ -1724,7 +1527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="52" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="65" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>24</v>
       </c>
@@ -2072,106 +1875,29 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select County from List" promptTitle="Required if State is No" prompt="Select the County-FIPS from List" sqref="D13:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select County from List" promptTitle="Required if State is No" prompt="Select the County-FIPS from List" sqref="D13:D30" xr:uid="{00AE6CFF-01E0-E24B-91BD-184979787B22}">
       <formula1>MA</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If you chose 'Yes' for 'Partial County', then you are required to enter a filename for the justification of why all the zip codes are not included in this service area." sqref="G13:G30"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid:" error="Select Yes or No from List" promptTitle="Required if State is No:" prompt="Select No if this Service Area covers the Entire county" sqref="E13:E30">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If you chose 'Yes' for 'Partial County', then you are required to enter a filename for the justification of why all the zip codes are not included in this service area." sqref="G13:G30" xr:uid="{7849EB07-C728-0143-A12C-204F63FF045B}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid:" error="Select Yes or No from List" promptTitle="Required if State is No:" prompt="Select No if this Service Area covers the Entire county" sqref="E13:E30" xr:uid="{53F620B7-2F88-574B-869E-19DEB95DEC52}">
       <formula1>YesNo</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select from list" promptTitle="Required:" prompt="Select the Service Area ID" sqref="A13:A30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select from list" promptTitle="Required:" prompt="Select the Service Area ID" sqref="A13:A30" xr:uid="{C87E59DC-9A13-1249-8EAB-B902D478E04F}">
       <formula1>Service</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select Yes or No from List" promptTitle="Required:" prompt="Select &quot;Yes&quot; if this Service Area covers the entire state" sqref="C13:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select Yes or No from List" promptTitle="Required:" prompt="Select &quot;Yes&quot; if this Service Area covers the entire state" sqref="C13:C30" xr:uid="{D826380D-FE06-7847-BA84-AE4071BCB588}">
       <formula1>YesNo</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Enter a 5-digit Issuer ID" promptTitle="Required:" prompt="Enter the Issuer ID" sqref="B6">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Enter a 5-digit Issuer ID" promptTitle="Required:" prompt="Enter the Issuer ID" sqref="B6" xr:uid="{D9D604C8-C1C3-064D-95C8-4FBE290D1FA3}">
       <formula1>AND(ISNUMBER($B$6),LEN($B$6)=5)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If you chose 'Yes' for Partial County, you are required to enter the inclusive 5-digit zip code list seperated by commas here." sqref="F13:F30"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select State from list" promptTitle="Required:" prompt="Select State from List" sqref="B7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If you chose 'Yes' for Partial County, you are required to enter the inclusive 5-digit zip code list seperated by commas here." sqref="F13:F30" xr:uid="{0170CFA3-AE3A-6849-91A9-3C9F012353EB}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Select State from list" promptTitle="Required:" prompt="Select State from List" sqref="B7" xr:uid="{BC802842-1368-D04B-9A1C-8CBA224BA32B}">
       <formula1>States</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required:" prompt="Enter the Service Area Name" sqref="B13:B30"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required:" prompt="Enter the Service Area Name" sqref="B13:B30" xr:uid="{68B036E4-BBEA-D84E-B1E1-337EA4FFB748}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="Button 1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!Validate" altText="To validate the workbook, press ctrl + shift + i">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>1866900</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>139700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId4" name="Button 2">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!Finalize" altText="To finalize the workbook and output a xml file press ctrl + shift + f">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>1866900</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId5" name="Button 3">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!createServiceArea" altText="Create Service Area IDs.  ctrl + shift + r">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>190500</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>1866900</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>